--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -843,40 +843,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.69921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="46.0390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="46.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.64453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -261,8 +261,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -275,10 +275,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -317,13 +317,13 @@
 </t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -336,13 +336,13 @@
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>拡張値の値 / Value of extension</t>
+  </si>
+  <si>
+    <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -356,13 +356,13 @@
 user content</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extension.value[x].use</t>
@@ -375,22 +375,22 @@
 </t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -409,22 +409,22 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子の説明 / Description of identifier</t>
+  </si>
+  <si>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -436,16 +436,16 @@
     <t>Extension.value[x].system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
   </si>
   <si>
     <t>点数表番号の名前空間を識別するURIを指定。固定値。</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.22</t>
@@ -463,13 +463,13 @@
     <t>Extension.value[x].value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
+    <t>一意の値 / The value that is unique</t>
   </si>
   <si>
     <t>点数表コード１桁「1：医科」、「3：歯科」。</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -488,10 +488,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -507,13 +507,13 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -853,7 +853,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="46.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -866,7 +866,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -261,8 +261,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -275,10 +275,10 @@
 </t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -317,13 +317,13 @@
 </t>
   </si>
   <si>
-    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -336,13 +336,13 @@
 </t>
   </si>
   <si>
-    <t>拡張値の値 / Value of extension</t>
-  </si>
-  <si>
-    <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -356,13 +356,13 @@
 user content</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extension.value[x].use</t>
@@ -375,22 +375,22 @@
 </t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>この識別子の目的。 / The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -409,22 +409,22 @@
 </t>
   </si>
   <si>
-    <t>識別子の説明 / Description of identifier</t>
-  </si>
-  <si>
-    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -436,16 +436,16 @@
     <t>Extension.value[x].system</t>
   </si>
   <si>
-    <t>識別子値の名前空間 / The namespace for the identifier value</t>
+    <t>The namespace for the identifier value</t>
   </si>
   <si>
     <t>点数表番号の名前空間を識別するURIを指定。固定値。</t>
   </si>
   <si>
-    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.22</t>
@@ -463,13 +463,13 @@
     <t>Extension.value[x].value</t>
   </si>
   <si>
-    <t>一意の値 / The value that is unique</t>
+    <t>The value that is unique</t>
   </si>
   <si>
     <t>点数表コード１桁「1：医科」、「3：歯科」。</t>
   </si>
   <si>
-    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -488,10 +488,10 @@
 </t>
   </si>
   <si>
-    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -507,13 +507,13 @@
 </t>
   </si>
   <si>
-    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -853,7 +853,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="46.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -866,7 +866,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="145.265625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="154">
   <si>
     <t>Property</t>
   </si>
@@ -332,7 +332,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -340,12 +340,28 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>valueCoding</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalFeeScoreType_VS</t>
+  </si>
+  <si>
     <t>Extension.value[x].id</t>
   </si>
   <si>
@@ -365,161 +381,114 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.value[x].use</t>
+    <t>Extension.value[x].system</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>点数表番号の名前空間を識別するURIを指定。固定値。</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.22</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Extension.value[x].version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Extension.value[x].code</t>
   </si>
   <si>
     <t xml:space="preserve">code
 </t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Extension.value[x].type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>点数表コード１桁「1：医科」、「3：歯科」、「4：調剤」、「5：老人保健施設」、「6：訪問看護ステーション」」、「0：助産所」。</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Extension.value[x].display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Extension.value[x].userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>Extension.value[x].system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>点数表番号の名前空間を識別するURIを指定。固定値。</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.100495.20.3.22</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Extension.value[x].value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>点数表コード１桁「1：医科」、「3：歯科」。</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Extension.value[x].period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Extension.value[x].assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
   </si>
 </sst>
 </file>
@@ -843,7 +812,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -853,7 +822,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="46.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -866,19 +835,19 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1465,16 +1434,14 @@
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>102</v>
@@ -1489,7 +1456,7 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>101</v>
@@ -1497,9 +1464,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="C7" t="s" s="2">
         <v>75</v>
       </c>
@@ -1508,7 +1477,7 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -1520,13 +1489,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1553,13 +1522,11 @@
         <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>75</v>
@@ -1577,7 +1544,7 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -1589,26 +1556,26 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>75</v>
@@ -1620,17 +1587,15 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>75</v>
@@ -1667,31 +1632,31 @@
         <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>88</v>
@@ -1703,39 +1668,37 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>119</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>75</v>
       </c>
@@ -1759,51 +1722,51 @@
         <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1814,7 +1777,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>75</v>
@@ -1823,29 +1786,29 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="R10" t="s" s="2">
         <v>75</v>
@@ -1863,13 +1826,13 @@
         <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>75</v>
@@ -1887,7 +1850,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -1899,15 +1862,15 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1927,35 +1890,33 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>75</v>
@@ -1991,7 +1952,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2003,15 +1964,15 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2031,21 +1992,21 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2057,7 +2018,7 @@
         <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>75</v>
@@ -2093,7 +2054,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2105,15 +2066,15 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2124,7 +2085,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>75</v>
@@ -2133,19 +2094,21 @@
         <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2193,7 +2156,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2205,15 +2168,15 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2224,7 +2187,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>75</v>
@@ -2233,21 +2196,23 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2295,7 +2260,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2307,10 +2272,10 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -356,7 +356,7 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t>required</t>
+    <t>preferred</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalFeeScoreType_VS</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -436,7 +436,7 @@
     <t>Symbol in syntax defined by the system</t>
   </si>
   <si>
-    <t>点数表コード１桁「1：医科」、「3：歯科」、「4：調剤」、「5：老人保健施設」、「6：訪問看護ステーション」」、「0：助産所」。</t>
+    <t>点数表コード１桁「1：医科」、「3：歯科」、「4：調剤」、「5：老人保健施設」、「6：訪問看護ステーション」」。</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="164">
   <si>
     <t>Property</t>
   </si>
@@ -332,7 +332,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -340,28 +340,12 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>valueCoding</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalFeeScoreType_VS</t>
-  </si>
-  <si>
     <t>Extension.value[x].id</t>
   </si>
   <si>
@@ -381,114 +365,161 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.value[x].system</t>
+    <t>Extension.value[x].use</t>
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>点数表番号の名前空間を識別するURIを指定。固定値。</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.100495.20.3.22</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Extension.value[x].version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Extension.value[x].code</t>
   </si>
   <si>
     <t xml:space="preserve">code
 </t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>点数表コード１桁「1：医科」、「3：歯科」、「4：調剤」、「5：老人保健施設」、「6：訪問看護ステーション」」。</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Extension.value[x].display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Extension.value[x].userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Extension.value[x].type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Extension.value[x].system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>点数表番号の名前空間を識別するURIを指定。固定値。</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.22</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Extension.value[x].value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>点数表コード１桁「1：医科」、「3：歯科」。</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Extension.value[x].period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Extension.value[x].assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
 </sst>
 </file>
@@ -812,7 +843,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.6796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -822,7 +853,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="46.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -835,19 +866,19 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1434,14 +1465,16 @@
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AB6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>102</v>
@@ -1456,7 +1489,7 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>101</v>
@@ -1464,11 +1497,9 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>75</v>
       </c>
@@ -1477,7 +1508,7 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -1489,13 +1520,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1522,11 +1553,13 @@
         <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X7" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y7" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>75</v>
@@ -1544,7 +1577,7 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -1556,26 +1589,26 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>75</v>
@@ -1587,15 +1620,17 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>75</v>
@@ -1632,31 +1667,31 @@
         <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>88</v>
@@ -1668,37 +1703,39 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O9" t="s" s="2">
         <v>75</v>
       </c>
@@ -1722,51 +1759,51 @@
         <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1777,7 +1814,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>75</v>
@@ -1786,29 +1823,29 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s" s="2">
         <v>75</v>
@@ -1826,13 +1863,13 @@
         <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>75</v>
@@ -1850,7 +1887,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -1862,15 +1899,15 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1890,33 +1927,35 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="R11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>75</v>
@@ -1952,7 +1991,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -1964,15 +2003,15 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1992,21 +2031,21 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2018,7 +2057,7 @@
         <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>75</v>
@@ -2054,7 +2093,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2066,15 +2105,15 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2085,7 +2124,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>75</v>
@@ -2094,21 +2133,19 @@
         <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2156,7 +2193,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2168,15 +2205,15 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2187,7 +2224,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>75</v>
@@ -2196,23 +2233,21 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2260,7 +2295,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2272,10 +2307,10 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="154">
   <si>
     <t>Property</t>
   </si>
@@ -332,7 +332,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -340,12 +340,28 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>valueCoding</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalFeeScoreType_VS</t>
+  </si>
+  <si>
     <t>Extension.value[x].id</t>
   </si>
   <si>
@@ -365,161 +381,114 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.value[x].use</t>
+    <t>Extension.value[x].system</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>点数表番号の名前空間を識別するURIを指定。固定値。</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.22</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Extension.value[x].version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Extension.value[x].code</t>
   </si>
   <si>
     <t xml:space="preserve">code
 </t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Extension.value[x].type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>点数表コード１桁「1：医科」、「3：歯科」、「4：調剤」、「5：老人保健施設」、「6：訪問看護ステーション」」。</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Extension.value[x].display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Extension.value[x].userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>Extension.value[x].system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>点数表番号の名前空間を識別するURIを指定。固定値。</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.100495.20.3.22</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Extension.value[x].value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>点数表コード１桁「1：医科」、「3：歯科」。</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Extension.value[x].period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Extension.value[x].assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
   </si>
 </sst>
 </file>
@@ -843,7 +812,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -853,7 +822,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="46.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -866,19 +835,19 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1465,16 +1434,14 @@
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>102</v>
@@ -1489,7 +1456,7 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>101</v>
@@ -1497,9 +1464,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="C7" t="s" s="2">
         <v>75</v>
       </c>
@@ -1508,7 +1477,7 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -1520,13 +1489,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1553,13 +1522,11 @@
         <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>75</v>
@@ -1577,7 +1544,7 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -1589,26 +1556,26 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>75</v>
@@ -1620,17 +1587,15 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>75</v>
@@ -1667,31 +1632,31 @@
         <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>88</v>
@@ -1703,39 +1668,37 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>119</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>75</v>
       </c>
@@ -1759,51 +1722,51 @@
         <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1814,7 +1777,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>75</v>
@@ -1823,29 +1786,29 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="R10" t="s" s="2">
         <v>75</v>
@@ -1863,13 +1826,13 @@
         <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>75</v>
@@ -1887,7 +1850,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -1899,15 +1862,15 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1927,35 +1890,33 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>75</v>
@@ -1991,7 +1952,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2003,15 +1964,15 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2031,21 +1992,21 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2057,7 +2018,7 @@
         <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>75</v>
@@ -2093,7 +2054,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2105,15 +2066,15 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2124,7 +2085,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>75</v>
@@ -2133,19 +2094,21 @@
         <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2193,7 +2156,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2205,15 +2168,15 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2224,7 +2187,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>75</v>
@@ -2233,21 +2196,23 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2295,7 +2260,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2307,10 +2272,10 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -249,7 +249,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>点数表コード１桁（医科1、歯科３）</t>
+    <t>点数表コード１桁（医科1、歯科３）【詳細参照】</t>
   </si>
   <si>
     <t>点数表コード１桁（医科1、歯科３）。Identifier型の拡張

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -359,7 +359,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalFeeScoreType_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicalFeeScoreType_VS</t>
   </si>
   <si>
     <t>Extension.value[x].id</t>
@@ -836,7 +836,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.3046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="153">
   <si>
     <t>Property</t>
   </si>
@@ -356,7 +356,7 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t>preferred</t>
+    <t>extensible</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicalFeeScoreType_VS</t>
@@ -397,9 +397,6 @@
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.100495.20.3.22</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1808,49 +1805,49 @@
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -1865,12 +1862,12 @@
         <v>108</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1896,13 +1893,13 @@
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -1952,7 +1949,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -1967,12 +1964,12 @@
         <v>108</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1995,17 +1992,17 @@
         <v>119</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>75</v>
@@ -2054,7 +2051,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2069,12 +2066,12 @@
         <v>108</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2100,14 +2097,14 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>75</v>
@@ -2156,7 +2153,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2171,12 +2168,12 @@
         <v>108</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2199,19 +2196,19 @@
         <v>119</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
@@ -2260,7 +2257,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2275,7 +2272,7 @@
         <v>108</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="154">
   <si>
     <t>Property</t>
   </si>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>点数表コード１桁（医科１、歯科３）表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
+    <t>点数表コード１桁を表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -249,11 +252,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>点数表コード１桁（医科1、歯科３）【詳細参照】</t>
-  </si>
-  <si>
-    <t>点数表コード１桁（医科1、歯科３）。Identifier型の拡張
-「InsuranceOrganizationCategory」を使用する。systemには点数表番号
+    <t>点数表コード１桁【詳細参照】</t>
+  </si>
+  <si>
+    <t>点数表コード１桁。systemには点数表番号
 を表すOID「1.2.392.100495.20.3.22」を指定する。</t>
   </si>
   <si>
@@ -261,53 +263,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -734,63 +736,63 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -849,214 +851,214 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>22</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -1065,23 +1067,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>84</v>
@@ -1095,65 +1097,65 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>88</v>
@@ -1165,29 +1167,29 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>91</v>
@@ -1195,38 +1197,38 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>92</v>
@@ -1235,7 +1237,7 @@
         <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>94</v>
@@ -1244,28 +1246,28 @@
         <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1275,75 +1277,75 @@
         <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>83</v>
@@ -1352,236 +1354,236 @@
         <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>84</v>
@@ -1595,65 +1597,65 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>88</v>
@@ -1661,74 +1663,74 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>92</v>
@@ -1737,7 +1739,7 @@
         <v>93</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>94</v>
@@ -1746,16 +1748,16 @@
         <v>95</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>88</v>
@@ -1763,516 +1765,516 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="163">
   <si>
     <t>Property</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>element:Organization</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -355,6 +358,9 @@
 </t>
   </si>
   <si>
+    <t>Extension.value[x]:valueCoding</t>
+  </si>
+  <si>
     <t>valueCoding</t>
   </si>
   <si>
@@ -364,7 +370,13 @@
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicalFeeScoreType_VS</t>
   </si>
   <si>
+    <t>Extension.value[x]:valueCoding.id</t>
+  </si>
+  <si>
     <t>Extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCoding.extension</t>
   </si>
   <si>
     <t>Extension.value[x].extension</t>
@@ -383,6 +395,9 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>Extension.value[x]:valueCoding.system</t>
+  </si>
+  <si>
     <t>Extension.value[x].system</t>
   </si>
   <si>
@@ -407,6 +422,9 @@
     <t>./codeSystem</t>
   </si>
   <si>
+    <t>Extension.value[x]:valueCoding.version</t>
+  </si>
+  <si>
     <t>Extension.value[x].version</t>
   </si>
   <si>
@@ -423,6 +441,9 @@
   </si>
   <si>
     <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCoding.code</t>
   </si>
   <si>
     <t>Extension.value[x].code</t>
@@ -447,6 +468,9 @@
     <t>./code</t>
   </si>
   <si>
+    <t>Extension.value[x]:valueCoding.display</t>
+  </si>
+  <si>
     <t>Extension.value[x].display</t>
   </si>
   <si>
@@ -463,6 +487,9 @@
   </si>
   <si>
     <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCoding.userSelected</t>
   </si>
   <si>
     <t>Extension.value[x].userSelected</t>
@@ -802,7 +829,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -811,42 +838,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.6796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.70703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.6796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="176.359375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.3046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.3046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -958,135 +985,141 @@
       <c r="AJ1" t="s" s="1">
         <v>75</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH2" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>85</v>
@@ -1094,199 +1127,205 @@
       <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>99</v>
@@ -1297,98 +1336,101 @@
       <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
+      <c r="N5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="R5" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>105</v>
@@ -1396,99 +1438,102 @@
       <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>105</v>
@@ -1496,97 +1541,100 @@
       <c r="L7" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>85</v>
@@ -1594,687 +1642,708 @@
       <c r="L8" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>88</v>
+        <v>97</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>126</v>
+        <v>110</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI11" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>132</v>
+        <v>110</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI13" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>145</v>
+        <v>110</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>153</v>
+        <v>110</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="164">
   <si>
     <t>Property</t>
   </si>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>点数表コード１桁【詳細参照】</t>
@@ -1017,16 +1021,16 @@
         <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>22</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1085,7 +1089,7 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>77</v>
@@ -1096,10 +1100,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1110,7 +1114,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>77</v>
@@ -1122,13 +1126,13 @@
         <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1179,13 +1183,13 @@
         <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>77</v>
@@ -1194,15 +1198,15 @@
         <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1225,13 +1229,13 @@
         <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>31</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1270,19 +1274,19 @@
         <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
@@ -1294,7 +1298,7 @@
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
@@ -1302,10 +1306,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1313,10 +1317,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>77</v>
@@ -1328,16 +1332,16 @@
         <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1387,13 +1391,13 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>77</v>
@@ -1402,15 +1406,15 @@
         <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1421,7 +1425,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -1433,13 +1437,13 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1478,43 +1482,43 @@
         <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>77</v>
@@ -1524,7 +1528,7 @@
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>77</v>
@@ -1536,13 +1540,13 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1569,11 +1573,11 @@
         <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>77</v>
@@ -1591,30 +1595,30 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1625,7 +1629,7 @@
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>77</v>
@@ -1637,13 +1641,13 @@
         <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1694,13 +1698,13 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>77</v>
@@ -1709,19 +1713,19 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1740,16 +1744,16 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1787,19 +1791,19 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1811,18 +1815,18 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1833,7 +1837,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
@@ -1842,22 +1846,22 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1906,30 +1910,30 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1940,7 +1944,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -1949,19 +1953,19 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2011,30 +2015,30 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2045,7 +2049,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2054,20 +2058,20 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2116,30 +2120,30 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2150,7 +2154,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -2159,20 +2163,20 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2221,30 +2225,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2255,7 +2259,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -2264,22 +2268,22 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2328,22 +2332,22 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="163">
   <si>
     <t>Property</t>
   </si>
@@ -253,10 +253,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>点数表コード１桁【詳細参照】</t>
@@ -1021,16 +1017,16 @@
         <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>22</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1089,7 +1085,7 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>77</v>
@@ -1100,10 +1096,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1114,25 +1110,25 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1183,30 +1179,30 @@
         <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1229,13 +1225,13 @@
         <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>31</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1274,19 +1270,19 @@
         <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
@@ -1298,7 +1294,7 @@
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
@@ -1306,10 +1302,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1317,10 +1313,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>77</v>
@@ -1332,16 +1328,16 @@
         <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1391,13 +1387,13 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>77</v>
@@ -1406,15 +1402,15 @@
         <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1425,7 +1421,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -1437,13 +1433,13 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1482,43 +1478,43 @@
         <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AF6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>77</v>
@@ -1528,7 +1524,7 @@
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>77</v>
@@ -1540,13 +1536,13 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1573,11 +1569,11 @@
         <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>77</v>
@@ -1595,30 +1591,30 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1629,25 +1625,25 @@
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1698,34 +1694,34 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1744,16 +1740,16 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1791,19 +1787,19 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC9" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC9" t="s" s="2">
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
+      <c r="AF9" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1815,18 +1811,18 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1837,7 +1833,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
@@ -1846,22 +1842,22 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1910,30 +1906,30 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK10" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1944,28 +1940,28 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="L11" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2015,30 +2011,30 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2049,7 +2045,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2058,20 +2054,20 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2120,30 +2116,30 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2154,29 +2150,29 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="L13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2225,30 +2221,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2259,7 +2255,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -2268,22 +2264,22 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2332,22 +2328,22 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -280,10 +280,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -315,8 +315,8 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -326,13 +326,13 @@
 </t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -345,10 +345,10 @@
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+    <t>拡張値の値 / Value of extension</t>
+  </si>
+  <si>
+    <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -358,7 +358,7 @@
     <t>closed</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -390,13 +390,13 @@
 user content</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extension.value[x]:valueCoding.system</t>
@@ -408,16 +408,16 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
   </si>
   <si>
     <t>点数表番号の名前空間を識別するURIを指定。固定値。</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -432,13 +432,13 @@
     <t>Extension.value[x].version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -457,13 +457,13 @@
 </t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
   </si>
   <si>
     <t>点数表コード１桁「1：医科」、「3：歯科」、「4：調剤」、「5：老人保健施設」、「6：訪問看護ステーション」」。</t>
   </si>
   <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -478,13 +478,13 @@
     <t>Extension.value[x].display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -503,16 +503,16 @@
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -856,7 +856,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="176.359375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="153">
   <si>
     <t>Property</t>
   </si>
@@ -351,36 +351,17 @@
     <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicalFeeScoreType_VS</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCoding</t>
-  </si>
-  <si>
-    <t>valueCoding</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicalFeeScoreType_VS</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCoding.id</t>
-  </si>
-  <si>
     <t>Extension.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCoding.extension</t>
   </si>
   <si>
     <t>Extension.value[x].extension</t>
@@ -399,9 +380,6 @@
     <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCoding.system</t>
-  </si>
-  <si>
     <t>Extension.value[x].system</t>
   </si>
   <si>
@@ -426,9 +404,6 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCoding.version</t>
-  </si>
-  <si>
     <t>Extension.value[x].version</t>
   </si>
   <si>
@@ -445,9 +420,6 @@
   </si>
   <si>
     <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCoding.code</t>
   </si>
   <si>
     <t>Extension.value[x].code</t>
@@ -472,9 +444,6 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCoding.display</t>
-  </si>
-  <si>
     <t>Extension.value[x].display</t>
   </si>
   <si>
@@ -491,9 +460,6 @@
   </si>
   <si>
     <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCoding.userSelected</t>
   </si>
   <si>
     <t>Extension.value[x].userSelected</t>
@@ -833,7 +799,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -842,7 +808,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.70703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.6796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1470,26 +1436,26 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>105</v>
@@ -1515,11 +1481,9 @@
         <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
         <v>77</v>
       </c>
@@ -1540,13 +1504,13 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1573,11 +1537,13 @@
         <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y7" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z7" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>77</v>
@@ -1595,7 +1561,7 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -1607,29 +1573,29 @@
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>77</v>
@@ -1641,15 +1607,17 @@
         <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>77</v>
@@ -1686,31 +1654,31 @@
         <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>90</v>
@@ -1721,18 +1689,18 @@
         <v>118</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>77</v>
@@ -1741,21 +1709,23 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
       </c>
@@ -1791,42 +1761,42 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>90</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1846,10 +1816,10 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>127</v>
@@ -1860,9 +1830,7 @@
       <c r="N10" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="O10" t="s" s="2">
-        <v>130</v>
-      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -1910,7 +1878,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -1925,15 +1893,15 @@
         <v>111</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1953,21 +1921,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2015,7 +1983,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2030,15 +1998,15 @@
         <v>111</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2058,20 +2026,20 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2120,7 +2088,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2135,15 +2103,15 @@
         <v>111</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2163,20 +2131,22 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2225,7 +2195,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2240,114 +2210,7 @@
         <v>111</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="116">
   <si>
     <t>Property</t>
   </si>
@@ -133,117 +133,6 @@
   </si>
   <si>
     <t>element:Organization</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -606,10 +495,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -799,7 +688,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -810,13 +699,11 @@
   <cols>
     <col min="1" max="1" width="30.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.6796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -824,664 +711,655 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="57.3046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="20.38671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>76</v>
+      <c r="AJ1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y6" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1489,728 +1367,625 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O8" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="P8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="O10" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O12" t="s" s="2">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>152</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="153">
   <si>
     <t>Property</t>
   </si>
@@ -133,6 +133,117 @@
   </si>
   <si>
     <t>element:Organization</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -495,10 +606,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -688,7 +799,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -699,11 +810,13 @@
   <cols>
     <col min="1" max="1" width="30.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.6796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -711,655 +824,664 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="57.3046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="20.38671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AJ1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK1" t="s" s="2">
-        <v>40</v>
+      <c r="H1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y5" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>53</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1367,625 +1489,728 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>115</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -159,6 +159,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -202,10 +206,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -833,7 +833,7 @@
         <v>46</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>40</v>
@@ -841,10 +841,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -855,7 +855,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>40</v>
@@ -867,13 +867,13 @@
         <v>40</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -924,13 +924,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -939,15 +939,15 @@
         <v>40</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -970,13 +970,13 @@
         <v>40</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>31</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1015,19 +1015,19 @@
         <v>40</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>41</v>
@@ -1039,7 +1039,7 @@
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -1058,10 +1058,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
@@ -1135,10 +1135,10 @@
         <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
@@ -1166,7 +1166,7 @@
         <v>41</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>40</v>
@@ -1239,7 +1239,7 @@
         <v>41</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>
@@ -1267,7 +1267,7 @@
         <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>40</v>
@@ -1279,13 +1279,13 @@
         <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1336,13 +1336,13 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
@@ -1351,7 +1351,7 @@
         <v>40</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -1382,7 +1382,7 @@
         <v>40</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>78</v>
@@ -1429,19 +1429,19 @@
         <v>40</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>41</v>
@@ -1453,10 +1453,10 @@
         <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -1475,7 +1475,7 @@
         <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>40</v>
@@ -1554,7 +1554,7 @@
         <v>41</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>40</v>
@@ -1582,7 +1582,7 @@
         <v>41</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>40</v>
@@ -1594,7 +1594,7 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>90</v>
@@ -1659,7 +1659,7 @@
         <v>41</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>40</v>
@@ -1687,7 +1687,7 @@
         <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>40</v>
@@ -1764,7 +1764,7 @@
         <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>40</v>
@@ -1792,7 +1792,7 @@
         <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>40</v>
@@ -1804,7 +1804,7 @@
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>103</v>
@@ -1869,7 +1869,7 @@
         <v>41</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>40</v>
@@ -1897,7 +1897,7 @@
         <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>40</v>
@@ -1976,7 +1976,7 @@
         <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -151,7 +151,7 @@
     <t>点数表コード１桁【詳細参照】</t>
   </si>
   <si>
-    <t>点数表コード１桁。systemには点数表番号
+    <t>点数表コード１桁。systemには点数表番号  
 を表すOID「1.2.392.100495.20.3.22」を指定する。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="153">
   <si>
     <t>Property</t>
   </si>
@@ -133,6 +133,117 @@
   </si>
   <si>
     <t>element:Organization</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -688,7 +799,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -699,11 +810,13 @@
   <cols>
     <col min="1" max="1" width="30.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.6796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -711,655 +824,664 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="57.3046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="20.38671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AK1" t="s" s="2">
-        <v>40</v>
+      <c r="I1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y5" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1367,625 +1489,728 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>115</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="116">
   <si>
     <t>Property</t>
   </si>
@@ -133,117 +133,6 @@
   </si>
   <si>
     <t>element:Organization</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -799,7 +688,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -810,13 +699,11 @@
   <cols>
     <col min="1" max="1" width="30.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.6796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -824,664 +711,655 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="57.3046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="20.38671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AJ1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="I1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>76</v>
+      <c r="AK1" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y6" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1489,728 +1367,625 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O8" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="P8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="O10" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O12" t="s" s="2">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>152</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>
